--- a/source-murine/v2.0.0/source-murine-v2.0.0.xlsx
+++ b/source-murine/v2.0.0/source-murine-v2.0.0.xlsx
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
   <si>
     <t>source_id</t>
   </si>
@@ -327,16 +327,40 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_2000072</t>
   </si>
   <si>
+    <t>Aspen chip bedding</t>
+  </si>
+  <si>
+    <t>http://dicom.nema.org/resources/ontology/DCM/127230</t>
+  </si>
+  <si>
+    <t>1/4-inch pelleted cellulose</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_2000071</t>
+  </si>
+  <si>
+    <t>Pine chip bedding</t>
+  </si>
+  <si>
+    <t>http://dicom.nema.org/resources/ontology/DCM/127234</t>
+  </si>
+  <si>
     <t>Non-contact cage board</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_2000073</t>
   </si>
   <si>
-    <t>1/4-inch pelleted cellulose</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_2000071</t>
+    <t>Aspen shaving bedding</t>
+  </si>
+  <si>
+    <t>http://dicom.nema.org/resources/ontology/DCM/127231</t>
+  </si>
+  <si>
+    <t>Pine shaving bedding</t>
+  </si>
+  <si>
+    <t>http://dicom.nema.org/resources/ontology/DCM/127235</t>
   </si>
   <si>
     <t>Wire mesh</t>
@@ -345,6 +369,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_2000074</t>
   </si>
   <si>
+    <t>Corn cob bedding</t>
+  </si>
+  <si>
+    <t>http://dicom.nema.org/resources/ontology/DCM/127232</t>
+  </si>
+  <si>
     <t>diet</t>
   </si>
   <si>
@@ -405,7 +435,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-25T12:40:00-07:00</t>
+    <t>2024-04-26T07:27:41-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -573,21 +603,21 @@
         <v>54</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="S2" t="s" s="20">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -626,7 +656,7 @@
       <formula1>'light_cycle'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'bedding'!$A$1:$A$5</formula1>
+      <formula1>'bedding'!$A$1:$A$10</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'cage_enhancements'!$A$1:$A$6</formula1>
@@ -648,34 +678,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -688,10 +718,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -715,30 +745,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1075,9 +1105,49 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B10" t="s" s="0">
         <v>30</v>
       </c>
     </row>
